--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_5_4.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_5_4.xlsx
@@ -478,373 +478,373 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_0</t>
+          <t>model_5_4_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7587726707519858</v>
+        <v>0.5691211202310158</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.731406010359539</v>
+        <v>0.0902626750975859</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9804182336849647</v>
+        <v>-0.9516738722224041</v>
       </c>
       <c r="E2" t="n">
-        <v>0.314061392348688</v>
+        <v>-0.5082547403938691</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2669675648212433</v>
+        <v>0.4768559634685516</v>
       </c>
       <c r="G2" t="n">
-        <v>1.230468153953552</v>
+        <v>0.4989897906780243</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03031695075333118</v>
+        <v>2.413866996765137</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6656932234764099</v>
+        <v>1.400108218193054</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_1</t>
+          <t>model_5_4_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7608917516969422</v>
+        <v>0.5757217275491305</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.733006438506765</v>
+        <v>0.1172036977443349</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9796791287594317</v>
+        <v>-0.9117445835005011</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3131153407695265</v>
+        <v>-0.4747926401655296</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2646223604679108</v>
+        <v>0.4695510566234589</v>
       </c>
       <c r="G3" t="n">
-        <v>1.231189131736755</v>
+        <v>0.4842126667499542</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03146124631166458</v>
+        <v>2.364481687545776</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6666113138198853</v>
+        <v>1.369045615196228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_2</t>
+          <t>model_5_4_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7630276178191464</v>
+        <v>0.5825350220256742</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.733864238881121</v>
+        <v>0.1326685308444797</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9790218778579238</v>
+        <v>-0.8538342242837205</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3124103361287334</v>
+        <v>-0.4336453859804767</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2622585892677307</v>
+        <v>0.4620107114315033</v>
       </c>
       <c r="G4" t="n">
-        <v>1.231575489044189</v>
+        <v>0.4757302701473236</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03247882053256035</v>
+        <v>2.29285717010498</v>
       </c>
       <c r="I4" t="n">
-        <v>0.667295515537262</v>
+        <v>1.330848574638367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_3</t>
+          <t>model_5_4_22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7648784843563146</v>
+        <v>0.5830288571013675</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.735730009125764</v>
+        <v>0.1449421342644455</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9782205061921999</v>
+        <v>-0.8674389797694404</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3113509636431195</v>
+        <v>-0.4383347481404429</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2602102160453796</v>
+        <v>0.4614641964435577</v>
       </c>
       <c r="G5" t="n">
-        <v>1.232415914535522</v>
+        <v>0.4689981639385223</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03371952474117279</v>
+        <v>2.309683561325073</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6683236360549927</v>
+        <v>1.335201740264893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_4</t>
+          <t>model_5_4_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7655148279771844</v>
+        <v>0.5869596497001563</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.751786658251527</v>
+        <v>0.1363878043336898</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9770776859236541</v>
+        <v>-0.8148214746598317</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3065471900007827</v>
+        <v>-0.4080214758282488</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2595059871673584</v>
+        <v>0.4571139812469482</v>
       </c>
       <c r="G6" t="n">
-        <v>1.239649415016174</v>
+        <v>0.4736903011798859</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03548886626958847</v>
+        <v>2.244605302810669</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6729856133460999</v>
+        <v>1.307061910629272</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_5</t>
+          <t>model_5_4_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7680642550701746</v>
+        <v>0.5947901155764009</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.741475276936327</v>
+        <v>0.1582087250158815</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9764850245067814</v>
+        <v>-0.7631710446291677</v>
       </c>
       <c r="E7" t="n">
-        <v>0.308636201654122</v>
+        <v>-0.368812380262975</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2566845118999481</v>
+        <v>0.4484479129314423</v>
       </c>
       <c r="G7" t="n">
-        <v>1.235004186630249</v>
+        <v>0.4617214798927307</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03640643879771233</v>
+        <v>2.180723190307617</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6709582805633545</v>
+        <v>1.27066445350647</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_6</t>
+          <t>model_5_4_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7703350498809314</v>
+        <v>0.6030147462379694</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.732628654962131</v>
+        <v>0.1821708656604507</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9759550147986458</v>
+        <v>-0.7094659176813991</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3104139252607497</v>
+        <v>-0.3276425830763263</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2541714310646057</v>
+        <v>0.4393456280231476</v>
       </c>
       <c r="G8" t="n">
-        <v>1.231018900871277</v>
+        <v>0.4485782384872437</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03722701221704483</v>
+        <v>2.114299535751343</v>
       </c>
       <c r="I8" t="n">
-        <v>0.669232964515686</v>
+        <v>1.232446432113647</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_7</t>
+          <t>model_5_4_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7720794655566191</v>
+        <v>0.6126576245433305</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.733038931426789</v>
+        <v>0.2125569348453052</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9751138552924453</v>
+        <v>-0.6496164995102263</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3096796119597236</v>
+        <v>-0.2806138056815117</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2522408664226532</v>
+        <v>0.4286738932132721</v>
       </c>
       <c r="G9" t="n">
-        <v>1.231203675270081</v>
+        <v>0.4319115579128265</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03852931410074234</v>
+        <v>2.040276765823364</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6699456572532654</v>
+        <v>1.188789844512939</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_8</t>
+          <t>model_5_4_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7739715072931148</v>
+        <v>0.6192047084676988</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.728475602598061</v>
+        <v>0.224340179852717</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9744595976111436</v>
+        <v>-0.5985727499284479</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3103102731024966</v>
+        <v>-0.2449239740798814</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2501469254493713</v>
+        <v>0.4214281737804413</v>
       </c>
       <c r="G10" t="n">
-        <v>1.229148030281067</v>
+        <v>0.4254484474658966</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03954225033521652</v>
+        <v>1.977144718170166</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6693336367607117</v>
+        <v>1.155659198760986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_9</t>
+          <t>model_5_4_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7760337715907126</v>
+        <v>0.6303485857265281</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.721981949188527</v>
+        <v>0.2890830269140843</v>
       </c>
       <c r="D11" t="n">
-        <v>0.973792382511558</v>
+        <v>-0.5444497747617327</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3114055397654807</v>
+        <v>-0.1907363431423805</v>
       </c>
       <c r="F11" t="n">
-        <v>0.247864618897438</v>
+        <v>0.4090951979160309</v>
       </c>
       <c r="G11" t="n">
-        <v>1.226222634315491</v>
+        <v>0.3899370729923248</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04057524725794792</v>
+        <v>1.910204648971558</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6682706475257874</v>
+        <v>1.105356931686401</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_10</t>
+          <t>model_5_4_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7784580400869825</v>
+        <v>0.6411444120900496</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.708847673835257</v>
+        <v>0.3254591558345579</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9732707351872139</v>
+        <v>-0.4776954694119127</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3142412521745903</v>
+        <v>-0.1375028960051281</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2451816648244858</v>
+        <v>0.3971473872661591</v>
       </c>
       <c r="G12" t="n">
-        <v>1.220305919647217</v>
+        <v>0.3699848353862762</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04138287529349327</v>
+        <v>1.827641487121582</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6655186414718628</v>
+        <v>1.055940508842468</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_11</t>
+          <t>model_5_4_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7808997015692201</v>
+        <v>0.6508544813481829</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.693038506370771</v>
+        <v>0.3538922418692115</v>
       </c>
       <c r="D13" t="n">
-        <v>0.972702718618629</v>
+        <v>-0.4136120233720559</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3177001991356947</v>
+        <v>-0.08842936462854545</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2424794584512711</v>
+        <v>0.3864012062549591</v>
       </c>
       <c r="G13" t="n">
-        <v>1.213183999061584</v>
+        <v>0.3543893098831177</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04226229339838028</v>
+        <v>1.748381972312927</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6621617674827576</v>
+        <v>1.010385632514954</v>
       </c>
     </row>
     <row r="14">
@@ -854,400 +854,400 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7822927953810813</v>
+        <v>0.6608365895407475</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.692393219763706</v>
+        <v>0.3895726738297034</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9716780599891478</v>
+        <v>-0.3505975782731792</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3170875892667498</v>
+        <v>-0.03775926661919771</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2409377247095108</v>
+        <v>0.3753539621829987</v>
       </c>
       <c r="G14" t="n">
-        <v>1.21289336681366</v>
+        <v>0.3348186612129211</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04384869337081909</v>
+        <v>1.670444488525391</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6627563238143921</v>
+        <v>0.9633487462997437</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_13</t>
+          <t>model_5_4_0</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7842179569620498</v>
+        <v>0.6652050574825216</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.681350275930585</v>
+        <v>0.8094890918983921</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9709404611950114</v>
+        <v>0.1194445770353357</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3192507648089909</v>
+        <v>0.3883069765450271</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2388071566820145</v>
+        <v>0.3705193698406219</v>
       </c>
       <c r="G15" t="n">
-        <v>1.207918643951416</v>
+        <v>0.1044950038194656</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0449906587600708</v>
+        <v>1.08908748626709</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6606569886207581</v>
+        <v>0.5678327083587646</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_14</t>
+          <t>model_5_4_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7861886004499672</v>
+        <v>0.6661986456046345</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.670170300097315</v>
+        <v>0.42428848626959</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9701341919376024</v>
+        <v>-0.2952828169303059</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3213899247055272</v>
+        <v>0.007782698355435658</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2366261929273605</v>
+        <v>0.3694197535514832</v>
       </c>
       <c r="G16" t="n">
-        <v>1.202882170677185</v>
+        <v>0.315777063369751</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04623894393444061</v>
+        <v>1.602030158042908</v>
       </c>
       <c r="I16" t="n">
-        <v>0.658581018447876</v>
+        <v>0.9210723042488098</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_15</t>
+          <t>model_5_4_6</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7883711140767868</v>
+        <v>0.6686636330058402</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.655349254473031</v>
+        <v>0.4562410851948439</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9695418578163669</v>
+        <v>-0.202982005835769</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3245908202593346</v>
+        <v>0.07564846444243745</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2342108339071274</v>
+        <v>0.3666917383670807</v>
       </c>
       <c r="G17" t="n">
-        <v>1.196205496788025</v>
+        <v>0.2982511222362518</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04715601354837418</v>
+        <v>1.487870812416077</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6554745435714722</v>
+        <v>0.8580726385116577</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_16</t>
+          <t>model_5_4_11</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7892159373628325</v>
+        <v>0.6695207233033988</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.656610937543169</v>
+        <v>0.4246111930404809</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9682231057756295</v>
+        <v>-0.2942770433816164</v>
       </c>
       <c r="E18" t="n">
-        <v>0.323290298435434</v>
+        <v>0.008513910361200083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2332758605480194</v>
+        <v>0.3657431602478027</v>
       </c>
       <c r="G18" t="n">
-        <v>1.196773767471313</v>
+        <v>0.3156000375747681</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0491977334022522</v>
+        <v>1.600786209106445</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6567367315292358</v>
+        <v>0.9203935265541077</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_17</t>
+          <t>model_5_4_9</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7904776242240247</v>
+        <v>0.6773659299799941</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.65242698022093</v>
+        <v>0.4557261755818756</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9668864897205801</v>
+        <v>-0.2198875873672914</v>
       </c>
       <c r="E19" t="n">
-        <v>0.323315368125724</v>
+        <v>0.06488839020745729</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2318795472383499</v>
+        <v>0.3570608496665955</v>
       </c>
       <c r="G19" t="n">
-        <v>1.194889068603516</v>
+        <v>0.29853355884552</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0512671135365963</v>
+        <v>1.508779883384705</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6567123532295227</v>
+        <v>0.8680613040924072</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_18</t>
+          <t>model_5_4_8</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7924709715504058</v>
+        <v>0.6842586257067738</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.63629647622515</v>
+        <v>0.4724566655946508</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9661248955751154</v>
+        <v>-0.1634156271350462</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3267059759412484</v>
+        <v>0.1055291941810834</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2296734899282455</v>
+        <v>0.349432647228241</v>
       </c>
       <c r="G20" t="n">
-        <v>1.187622308731079</v>
+        <v>0.2893568873405457</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05244623124599457</v>
+        <v>1.438934326171875</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6534218788146973</v>
+        <v>0.830334484577179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_19</t>
+          <t>model_5_4_7</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7939383325045106</v>
+        <v>0.687827806031325</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.629201280503312</v>
+        <v>0.4749818267320272</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9650976951644451</v>
+        <v>-0.1197331389839751</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3276781390903553</v>
+        <v>0.1337080588279972</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2280495464801788</v>
+        <v>0.3454826176166534</v>
       </c>
       <c r="G21" t="n">
-        <v>1.184425950050354</v>
+        <v>0.2879718244075775</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05403656512498856</v>
+        <v>1.384907007217407</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6524783968925476</v>
+        <v>0.8041761517524719</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_20</t>
+          <t>model_5_4_5</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7959489193726653</v>
+        <v>0.6886388786653624</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.611104202097529</v>
+        <v>0.529231763275879</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9643739978347072</v>
+        <v>-0.0971935542245661</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3315824869016275</v>
+        <v>0.1648095237920342</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2258244305849075</v>
+        <v>0.3445850014686584</v>
       </c>
       <c r="G22" t="n">
-        <v>1.176273584365845</v>
+        <v>0.2582157850265503</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05515701323747635</v>
+        <v>1.357029557228088</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6486892104148865</v>
+        <v>0.7753047943115234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_21</t>
+          <t>model_5_4_1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7977514470740948</v>
+        <v>0.708778543035911</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.595340290339927</v>
+        <v>0.8203162773085484</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9633293218935363</v>
+        <v>0.2296833776102526</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3346719103360439</v>
+        <v>0.4608131319850249</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2238295376300812</v>
+        <v>0.3222963511943817</v>
       </c>
       <c r="G23" t="n">
-        <v>1.169172048568726</v>
+        <v>0.09855630248785019</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05677440762519836</v>
+        <v>0.9527420401573181</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6456910371780396</v>
+        <v>0.5005255341529846</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_22</t>
+          <t>model_5_4_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7990881377754375</v>
+        <v>0.7130113704538446</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.586060175223429</v>
+        <v>0.8271126296306717</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9623364461499082</v>
+        <v>0.213306714666282</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3362079233100138</v>
+        <v>0.4526702973819446</v>
       </c>
       <c r="F24" t="n">
-        <v>0.222350224852562</v>
+        <v>0.3176118731498718</v>
       </c>
       <c r="G24" t="n">
-        <v>1.164991497993469</v>
+        <v>0.09482851624488831</v>
       </c>
       <c r="H24" t="n">
-        <v>0.05831160023808479</v>
+        <v>0.9729970693588257</v>
       </c>
       <c r="I24" t="n">
-        <v>0.644200325012207</v>
+        <v>0.5080844759941101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_23</t>
+          <t>model_5_4_4</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8003364538418957</v>
+        <v>0.7139981687733101</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.57795155295058</v>
+        <v>0.7296132268684208</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9611736353383238</v>
+        <v>0.1610661445493614</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3373268871289895</v>
+        <v>0.389417543632951</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2209687232971191</v>
+        <v>0.3165197372436523</v>
       </c>
       <c r="G25" t="n">
-        <v>1.161338686943054</v>
+        <v>0.14830681681633</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0601118877530098</v>
+        <v>1.037609100341797</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6431143879890442</v>
+        <v>0.5668017864227295</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_5_4_24</t>
+          <t>model_5_4_3</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8014795305633325</v>
+        <v>0.7173868464307285</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.570511420122618</v>
+        <v>0.8107626208024141</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9600409882099616</v>
+        <v>0.2117193586697858</v>
       </c>
       <c r="E26" t="n">
-        <v>0.338305020040928</v>
+        <v>0.4465605234331921</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2197036743164062</v>
+        <v>0.3127694725990295</v>
       </c>
       <c r="G26" t="n">
-        <v>1.157986879348755</v>
+        <v>0.1037964671850204</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06186548247933388</v>
+        <v>0.9749603271484375</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6421651244163513</v>
+        <v>0.5137561559677124</v>
       </c>
     </row>
   </sheetData>
